--- a/figures/mummichog_pathway_enrichment/mummichog_pathway_enrichment_final.xlsx
+++ b/figures/mummichog_pathway_enrichment/mummichog_pathway_enrichment_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathzero/Google Drive/Imperial/2 Translational data science/TDS project/Project6/Results/phase_2/metabolite_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E49DB8-E76B-2B42-B03D-B2381179C3ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C2A1D5-C1EA-DE43-A3FE-7C06DE561D6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25440" windowHeight="15000"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Metabolomic pathway</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Expected</t>
-  </si>
-  <si>
-    <t>P-value</t>
   </si>
   <si>
     <t>Vitamin E metabolism</t>
@@ -126,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -961,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +970,7 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,13 +986,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>54</v>
@@ -1009,13 +1003,10 @@
       <c r="E2">
         <v>4.3861999999999997</v>
       </c>
-      <c r="F2">
-        <v>6.9196999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1029,13 +1020,10 @@
       <c r="E3">
         <v>0.64980000000000004</v>
       </c>
-      <c r="F3">
-        <v>8.5391999999999996E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>33</v>
@@ -1049,13 +1037,10 @@
       <c r="E4">
         <v>2.6804000000000001</v>
       </c>
-      <c r="F4">
-        <v>0.11903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -1069,13 +1054,10 @@
       <c r="E5">
         <v>2.8429000000000002</v>
       </c>
-      <c r="F5">
-        <v>0.11903</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>43</v>
@@ -1089,13 +1071,10 @@
       <c r="E6">
         <v>3.4927000000000001</v>
       </c>
-      <c r="F6">
-        <v>0.16106000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -1109,13 +1088,10 @@
       <c r="E7">
         <v>1.2996000000000001</v>
       </c>
-      <c r="F7">
-        <v>0.22228999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -1129,13 +1105,10 @@
       <c r="E8">
         <v>1.7057</v>
       </c>
-      <c r="F8">
-        <v>0.29568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1149,13 +1122,10 @@
       <c r="E9">
         <v>0.48735000000000001</v>
       </c>
-      <c r="F9">
-        <v>0.32783000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>53</v>
@@ -1169,13 +1139,10 @@
       <c r="E10">
         <v>4.3048999999999999</v>
       </c>
-      <c r="F10">
-        <v>0.43889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1189,13 +1156,10 @@
       <c r="E11">
         <v>0.24368000000000001</v>
       </c>
-      <c r="F11">
-        <v>0.44905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1209,13 +1173,10 @@
       <c r="E12">
         <v>1.6245000000000001</v>
       </c>
-      <c r="F12">
-        <v>0.50199000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>31</v>
@@ -1229,13 +1190,10 @@
       <c r="E13">
         <v>2.5179999999999998</v>
       </c>
-      <c r="F13">
-        <v>0.53983000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1249,13 +1207,10 @@
       <c r="E14">
         <v>0.81225000000000003</v>
       </c>
-      <c r="F14">
-        <v>0.54847999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -1269,13 +1224,10 @@
       <c r="E15">
         <v>0.89348000000000005</v>
       </c>
-      <c r="F15">
-        <v>0.61636999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>49</v>
@@ -1289,13 +1241,10 @@
       <c r="E16">
         <v>3.98</v>
       </c>
-      <c r="F16">
-        <v>0.61694000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>37</v>
@@ -1309,13 +1258,10 @@
       <c r="E17">
         <v>3.0053000000000001</v>
       </c>
-      <c r="F17">
-        <v>0.65234000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1329,13 +1275,10 @@
       <c r="E18">
         <v>1.6245000000000001</v>
       </c>
-      <c r="F18">
-        <v>0.65564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1349,13 +1292,10 @@
       <c r="E19">
         <v>0.81225000000000003</v>
       </c>
-      <c r="F19">
-        <v>0.69689999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1369,13 +1309,10 @@
       <c r="E20">
         <v>0.81225000000000003</v>
       </c>
-      <c r="F20">
-        <v>0.69689999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -1389,13 +1326,10 @@
       <c r="E21">
         <v>0.89348000000000005</v>
       </c>
-      <c r="F21">
-        <v>0.69689999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -1409,13 +1343,10 @@
       <c r="E22">
         <v>0.89348000000000005</v>
       </c>
-      <c r="F22">
-        <v>0.69689999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>92</v>
@@ -1429,13 +1360,10 @@
       <c r="E23">
         <v>7.4726999999999997</v>
       </c>
-      <c r="F23">
-        <v>0.70455000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -1449,13 +1377,10 @@
       <c r="E24">
         <v>1.7869999999999999</v>
       </c>
-      <c r="F24">
-        <v>0.74861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -1469,13 +1394,10 @@
       <c r="E25">
         <v>0.64980000000000004</v>
       </c>
-      <c r="F25">
-        <v>0.75172000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>41</v>
@@ -1488,9 +1410,6 @@
       </c>
       <c r="E26">
         <v>3.3302</v>
-      </c>
-      <c r="F26">
-        <v>0.83777999999999997</v>
       </c>
     </row>
   </sheetData>
